--- a/data/cci/cci-project.xlsx
+++ b/data/cci/cci-project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9862048-ABC4-BD42-9727-8D2DCA1B6113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56BAFBA-C3B6-4976-A271-D1A04F7093A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-71740" yWindow="-1660" windowWidth="30240" windowHeight="18880" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>URI</t>
   </si>
@@ -43,54 +43,36 @@
     <t>AEROSOL</t>
   </si>
   <si>
-    <t>Aerosol properties climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>cloud</t>
   </si>
   <si>
     <t>CLOUD</t>
   </si>
   <si>
-    <t>Cloud properties climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>fire</t>
   </si>
   <si>
     <t>FIRE</t>
   </si>
   <si>
-    <t>Fire disturbance (burned area) climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>greenhouse gases</t>
   </si>
   <si>
     <t>GHG</t>
   </si>
   <si>
-    <t>Greenhouse gasses (carbon dioxide and methane) climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>glaciers</t>
   </si>
   <si>
     <t>GLACIERS</t>
   </si>
   <si>
-    <t>Glacier inventory climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>land cover</t>
   </si>
   <si>
     <t>LC</t>
   </si>
   <si>
-    <t>Land cover climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>ocean colour</t>
   </si>
   <si>
@@ -106,9 +88,6 @@
     <t>OZONE</t>
   </si>
   <si>
-    <t>Ozone climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>sea level</t>
   </si>
   <si>
@@ -124,126 +103,84 @@
     <t>SST</t>
   </si>
   <si>
-    <t>Sea surface temperature climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>soil moisture</t>
   </si>
   <si>
     <t>SOILMOISTURE</t>
   </si>
   <si>
-    <t>Soil moisture climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>ice sheets</t>
   </si>
   <si>
     <t>ICESHEETS</t>
   </si>
   <si>
-    <t>Ice sheets climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>sea ice</t>
   </si>
   <si>
     <t>SEAICE</t>
   </si>
   <si>
-    <t>Sea ice climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>above-ground biomass</t>
   </si>
   <si>
     <t>BIOMASS</t>
   </si>
   <si>
-    <t>Above-ground biomass climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>permafrost</t>
   </si>
   <si>
     <t>PERMAFROST</t>
   </si>
   <si>
-    <t>Permafrost climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>sea surface salinity</t>
   </si>
   <si>
     <t>SEASURFACESALINITY</t>
   </si>
   <si>
-    <t>Sea Surface Salinity climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>sea state</t>
   </si>
   <si>
     <t>SEASTATE</t>
   </si>
   <si>
-    <t>Sea state climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>snow</t>
   </si>
   <si>
     <t>SNOW</t>
   </si>
   <si>
-    <t>Snow climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>water vapour</t>
   </si>
   <si>
     <t>WATERVAPOUR</t>
   </si>
   <si>
-    <t>Water vapour climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>land surface temperature</t>
   </si>
   <si>
     <t>LST</t>
   </si>
   <si>
-    <t>Land Surface Temperature climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>lakes</t>
   </si>
   <si>
     <t>LAKES</t>
   </si>
   <si>
-    <t>Lakes climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>vegetation parameters</t>
   </si>
   <si>
     <t>VEGETATION</t>
   </si>
   <si>
-    <t>Vegetation Parameters climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>river discharge</t>
   </si>
   <si>
     <t>RD</t>
   </si>
   <si>
-    <t>River discharge climate data record produced from satellite data as part of the European Space Agency (ESA) Climate Change Initiative (CCI)</t>
-  </si>
-  <si>
     <t>cciproject_aerosol</t>
   </si>
   <si>
@@ -311,6 +248,93 @@
   </si>
   <si>
     <t>cciproject_riverDischarge</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Aerosol project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Cloud project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Fire project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Greenhouse gases project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Glaciers project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Land Cover project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Sea Level project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Sea Surface Temperature project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Soil Moisture project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Ice Sheets project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Sea Ice project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Biomass project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Permafrost project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Salinity project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Sea State project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Snow project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Water Vapour project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Land Surface Temperature project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Lakes project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Vegetation Parameters project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) River Discharge project</t>
+  </si>
+  <si>
+    <t>cciproject_reccap2</t>
+  </si>
+  <si>
+    <t>RECCAP2</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) RECCAP-2 project</t>
+  </si>
+  <si>
+    <t>RECCAP-2</t>
+  </si>
+  <si>
+    <t>cciproject_seaLevelBudgetClos</t>
+  </si>
+  <si>
+    <t>sea level budget closure</t>
+  </si>
+  <si>
+    <t>SLBC</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Sea Level budget closure</t>
   </si>
 </sst>
 </file>
@@ -1040,22 +1064,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A059DA7-785A-874C-8D00-32DC40CC12B7}">
   <dimension ref="A1:AMC163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.5" style="16" customWidth="1"/>
-    <col min="5" max="1016" width="10.6640625" style="2" customWidth="1"/>
-    <col min="1017" max="1017" width="13.33203125" style="2" customWidth="1"/>
-    <col min="1018" max="1018" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" style="16" customWidth="1"/>
+    <col min="5" max="1016" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1017" max="1017" width="13.28515625" style="2" customWidth="1"/>
+    <col min="1018" max="1018" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,9 +1096,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
@@ -1083,352 +1107,368 @@
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:64" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:64" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:64" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:64" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:64" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:64" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:64" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:64" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
+    <row r="25" spans="1:64" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+    <row r="26" spans="1:64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1490,63 +1530,63 @@
       <c r="BK26" s="2"/>
       <c r="BL26" s="2"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="5"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="5"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="5"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
@@ -2506,7 +2546,7 @@
       <c r="AMB35"/>
       <c r="AMC35"/>
     </row>
-    <row r="36" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="5"/>
       <c r="C36" s="3"/>
@@ -3466,7 +3506,7 @@
       <c r="AMB36"/>
       <c r="AMC36"/>
     </row>
-    <row r="37" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="5"/>
       <c r="C37" s="3"/>
@@ -4426,7 +4466,7 @@
       <c r="AMB37"/>
       <c r="AMC37"/>
     </row>
-    <row r="38" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="5"/>
       <c r="C38" s="3"/>
@@ -5386,147 +5426,147 @@
       <c r="AMB38"/>
       <c r="AMC38"/>
     </row>
-    <row r="39" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="5"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="5"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="5"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45" s="6"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:1017" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1017" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5592,126 +5632,126 @@
       <c r="BK59" s="2"/>
       <c r="BL59" s="2"/>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
       <c r="D64" s="6"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="6"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66" s="6"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="4"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="4"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="4"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="4"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75" s="6"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5777,237 +5817,237 @@
       <c r="BK77" s="2"/>
       <c r="BL77" s="2"/>
     </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="5"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="5"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="5"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82" s="6"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83" s="6"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="4"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="4"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="4"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94" s="6"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98" s="6"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="4"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="6"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="4"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="5"/>
       <c r="C106" s="3"/>
       <c r="D106" s="4"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="5"/>
       <c r="C107" s="3"/>
       <c r="D107" s="4"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109" s="6"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="6"/>
     </row>
   </sheetData>

--- a/data/cci/cci-project.xlsx
+++ b/data/cci/cci-project.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/alison_waterfall_stfc_ac_uk/Documents/Documents/GitHub/cci-vocabularies/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56BAFBA-C3B6-4976-A271-D1A04F7093A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F56BAFBA-C3B6-4976-A271-D1A04F7093A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15B86BA-5A88-4380-BF54-91C36CF39B2C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{04DF87AA-227F-E848-BF0E-6E7C9BB1D368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>URI</t>
   </si>
@@ -334,7 +334,19 @@
     <t>SLBC</t>
   </si>
   <si>
-    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Sea Level budget closure</t>
+    <t>cciproject_prec</t>
+  </si>
+  <si>
+    <t>precursors for aerosols and ozone</t>
+  </si>
+  <si>
+    <t>PREC</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative CCI Precursors for Aerosols and Ozone project</t>
+  </si>
+  <si>
+    <t>The European Space Agency (ESA) Climate Change Initiative (CCI) Sea Level budget closure project</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A059DA7-785A-874C-8D00-32DC40CC12B7}">
   <dimension ref="A1:AMC163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1479,7 @@
         <v>103</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
@@ -1530,11 +1542,19 @@
       <c r="BK26" s="2"/>
       <c r="BL26" s="2"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+    <row r="27" spans="1:64" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.25">
